--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内嵌类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,6 +189,58 @@
   </si>
   <si>
     <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hola</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,jksjda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List[x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True,True,False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True,False</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -558,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -569,7 +617,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -580,7 +628,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -592,20 +640,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -613,7 +661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -627,10 +675,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -644,10 +695,13 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -658,13 +712,16 @@
         <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -678,10 +735,13 @@
         <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -697,8 +757,11 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -709,13 +772,16 @@
         <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -729,62 +795,155 @@
         <v>30</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>1.111</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>1.212</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>248</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,39 +208,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Flags</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List[x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True;True;False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>True;False</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0,jksjda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Flags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List[x]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True,True,False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True,False</t>
+    <t>0,jksjda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,jksjda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -643,7 +651,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -678,7 +686,7 @@
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -698,7 +706,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -718,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -738,7 +746,7 @@
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -758,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,10 +783,10 @@
         <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -875,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -895,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -915,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -935,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -1,286 +1,515 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>颜色</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>蓝</t>
   </si>
   <si>
     <t>Class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Green</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ConfigPP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试数据类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ratio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nesttt</t>
+  </si>
+  <si>
+    <t>Flags</t>
   </si>
   <si>
     <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>比率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内嵌类</t>
+  </si>
+  <si>
+    <t>标志</t>
   </si>
   <si>
     <t>Client</t>
   </si>
   <si>
-    <t>Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Server</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NestedClasss</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>Color.ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>List[x]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内嵌类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Nesttt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NestedClasss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ID,Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Id,姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Int32,String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>None,None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Jack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,jksjda;2,hola</t>
+  </si>
+  <si>
+    <t>True;True;False</t>
   </si>
   <si>
     <t>Mack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Ruby</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Hola</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Client</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List[x]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>True;True;False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>True;False</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,jksjda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,jksjda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,jksjda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -288,24 +517,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -354,7 +869,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -389,7 +904,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -563,50 +1078,48 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -614,267 +1127,268 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>1.111</v>
@@ -883,18 +1397,18 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14">
         <v>1.212</v>
@@ -903,38 +1417,38 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15">
-        <v>2.1579999999999999</v>
+        <v>2.158</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>248</v>
@@ -943,15 +1457,15 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Enum</t>
   </si>
@@ -77,6 +77,9 @@
     <t>Flags</t>
   </si>
   <si>
+    <t>Color2</t>
+  </si>
+  <si>
     <t>名称</t>
   </si>
   <si>
@@ -89,12 +92,12 @@
     <t>标志</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>Client</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>Int32</t>
   </si>
   <si>
@@ -113,12 +116,18 @@
     <t>None</t>
   </si>
   <si>
-    <t>Color.ID</t>
+    <t>Color.Value</t>
   </si>
   <si>
     <t>List[x]</t>
   </si>
   <si>
+    <t>List[2]</t>
+  </si>
+  <si>
+    <t>List[0]</t>
+  </si>
+  <si>
     <t>ID,Name</t>
   </si>
   <si>
@@ -134,22 +143,46 @@
     <t>Jack</t>
   </si>
   <si>
+    <t>Red;Green</t>
+  </si>
+  <si>
     <t>0,jksjda;2,hola</t>
   </si>
   <si>
     <t>True;True;False</t>
   </si>
   <si>
+    <t>"Jack";"Loli"</t>
+  </si>
+  <si>
     <t>Mack</t>
   </si>
   <si>
+    <t>Green;Blue</t>
+  </si>
+  <si>
+    <t>"Mack";"Khan"</t>
+  </si>
+  <si>
     <t>Ruby</t>
   </si>
   <si>
+    <t>Blue;Green</t>
+  </si>
+  <si>
+    <t>"Ruby"</t>
+  </si>
+  <si>
     <t>Hola</t>
   </si>
   <si>
+    <t>Red;Red</t>
+  </si>
+  <si>
     <t>True;False</t>
+  </si>
+  <si>
+    <t>"Hola"</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1120,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1162,28 +1195,35 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="7" max="7" width="33.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1202,265 +1242,337 @@
       <c r="F3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>1.111</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="s">
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="H13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1.212</v>
       </c>
-      <c r="D14">
-        <v>2</v>
+      <c r="D14" t="s">
+        <v>47</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="H14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>2.158</v>
       </c>
-      <c r="D15">
-        <v>3</v>
+      <c r="D15" t="s">
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>248</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="s">
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="H16" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChillyYep\UISystem\Tools\ConfigDataExpoter\Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
   <si>
     <t>Enum</t>
   </si>
@@ -134,9 +139,6 @@
     <t>Id,姓名</t>
   </si>
   <si>
-    <t>Int32,String</t>
-  </si>
-  <si>
     <t>None,None</t>
   </si>
   <si>
@@ -183,19 +185,38 @@
   </si>
   <si>
     <t>"Hola"</t>
+  </si>
+  <si>
+    <t>List[x]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Int32,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,345 +225,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -550,310 +262,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1111,26 +538,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1141,7 +568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1152,7 +579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1163,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1174,7 +601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1186,33 +613,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="33.25" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1223,7 +650,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1249,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +702,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +728,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1324,10 +751,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1353,7 +780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1369,8 +796,8 @@
       <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
+      <c r="F8" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -1379,7 +806,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1405,7 +832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1431,7 +858,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1444,35 +871,36 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="F11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
       <c r="F12" t="s">
         <v>32</v>
       </c>
@@ -1482,102 +910,104 @@
       <c r="H12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>1.111</v>
       </c>
       <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>43</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1.212</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15">
+        <v>2.1579999999999999</v>
+      </c>
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="C15">
-        <v>2.158</v>
-      </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>248</v>
       </c>
       <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>54</v>
       </c>
-      <c r="H16" t="s">
-        <v>55</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChillyYep\UISystem\Tools\ConfigDataExpoter\Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="57">
   <si>
     <t>Enum</t>
   </si>
@@ -118,6 +113,9 @@
     <t>Boolean</t>
   </si>
   <si>
+    <t>Text</t>
+  </si>
+  <si>
     <t>None</t>
   </si>
   <si>
@@ -139,6 +137,9 @@
     <t>Id,姓名</t>
   </si>
   <si>
+    <t>Int32,String</t>
+  </si>
+  <si>
     <t>None,None</t>
   </si>
   <si>
@@ -185,38 +186,19 @@
   </si>
   <si>
     <t>"Hola"</t>
-  </si>
-  <si>
-    <t>List[x]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Int32,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Text</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,7 +207,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -234,27 +217,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -262,25 +560,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -538,26 +1122,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +1152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -579,7 +1163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -590,7 +1174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -601,7 +1185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -613,33 +1197,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="33.25" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -650,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -676,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -702,7 +1287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -728,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -751,263 +1336,263 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1.111</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>1.212</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>2.1579999999999999</v>
+        <v>2.158</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>248</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChillyYep\UISystem\Tools\ConfigDataExpoter\Design\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,6 +107,9 @@
     <t>Float</t>
   </si>
   <si>
+    <t>IDNamePair</t>
+  </si>
+  <si>
     <t>Boolean</t>
   </si>
   <si>
@@ -188,17 +186,19 @@
   </si>
   <si>
     <t>"Hola"</t>
-  </si>
-  <si>
-    <t>IDNamePair</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,32 +210,342 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -243,25 +553,311 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -519,26 +1115,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -549,7 +1145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -560,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -571,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -582,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -594,33 +1190,34 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="4" max="4" width="33.25" customWidth="1"/>
     <col min="5" max="5" width="22.25" customWidth="1"/>
     <col min="7" max="7" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -631,7 +1228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -657,7 +1254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -683,7 +1280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -709,7 +1306,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -723,272 +1320,272 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1.111</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <v>1.212</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15">
-        <v>2.1579999999999999</v>
+        <v>2.158</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>248</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tools/ConfigDataExpoter/Design/Test.xlsx
+++ b/Tools/ConfigDataExpoter/Design/Test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>Jack</t>
   </si>
   <si>
-    <t>Red;Green</t>
+    <t>0;Green</t>
   </si>
   <si>
     <t>0,jksjda;2,hola</t>
@@ -1123,8 +1123,8 @@
   <sheetPr/>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
@@ -1201,8 +1201,8 @@
   <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
